--- a/Bao cao/NHOM3_BANG_KE_HOACH_CONG_VIEC.xlsx
+++ b/Bao cao/NHOM3_BANG_KE_HOACH_CONG_VIEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Hieu\Documents\DACSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE7FC2-B431-4E46-B219-7E1024A2422B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFDEB17-395B-4BCD-A749-CAEC5AD6CDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4108ED12-3759-4ADC-B967-CA42B9AE90C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>Link Google Drive:</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wnSb6hDS7ijDJzijBybiu0fEWdixhePt/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6208BB9-4994-46A1-9B3F-95C59B585EBE}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -743,10 +749,12 @@
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="90" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -757,7 +765,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -768,7 +776,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -779,7 +787,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -788,7 +796,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -798,8 +806,11 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -817,8 +828,11 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -837,7 +851,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -854,7 +868,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>3</v>
       </c>
@@ -871,7 +885,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -882,7 +896,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -903,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -916,7 +930,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>1</v>
       </c>
@@ -937,7 +951,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
@@ -948,7 +962,7 @@
       <c r="F15" s="27"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
